--- a/ExcelFiles/TestData.xlsx
+++ b/ExcelFiles/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharme Docs\Downloads\SeleniumPythonHybridFramework\POM_Project\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CEB145-9CC9-430E-B379-958181546771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391EFD22-17B1-43D5-8B6D-32823755A067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,12 +436,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -450,7 +446,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{14B914A0-FE87-4E79-9BA6-1592479B979D}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{C0F34FEC-F77D-481E-BF5C-52814EB5E600}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
